--- a/test2/clothes_level.xlsx
+++ b/test2/clothes_level.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="180" windowWidth="16140" windowHeight="9580" activeTab="1"/>
+    <workbookView xWindow="8240" yWindow="5920" windowWidth="16140" windowHeight="9580" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="装备主表" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="裤子ID" sheetId="4" r:id="rId4"/>
     <sheet name="武器ID" sheetId="6" r:id="rId5"/>
     <sheet name="鞋子ID" sheetId="5" r:id="rId6"/>
+    <sheet name="升级" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>套装等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -506,11 +507,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -551,6 +554,7 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -560,6 +564,7 @@
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1247,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2374,4 +2379,229 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1">
+        <v>107</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>